--- a/domain_files/ifdat/example/SELF_INFO_MFMC_M0_EXAMPLE.xlsx
+++ b/domain_files/ifdat/example/SELF_INFO_MFMC_M0_EXAMPLE.xlsx
@@ -28480,10 +28480,14 @@
       <c r="E4" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="13" t="inlineStr"/>
+      <c r="F4" s="13" t="b">
+        <v>1</v>
+      </c>
       <c r="G4" s="13" t="inlineStr"/>
       <c r="H4" s="13" t="inlineStr"/>
-      <c r="I4" s="13" t="inlineStr"/>
+      <c r="I4" s="13" t="b">
+        <v>1</v>
+      </c>
       <c r="J4" s="14" t="inlineStr"/>
       <c r="K4" s="14" t="inlineStr"/>
       <c r="L4" s="14" t="inlineStr"/>
